--- a/biology/Écologie/Sandra_Bessudo/Sandra_Bessudo.xlsx
+++ b/biology/Écologie/Sandra_Bessudo/Sandra_Bessudo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sandra Bessudo (née le 30 mai 1969) est une biologiste et personnalité politique franco-colombienne. Spécialiste de l'environnement, elle a été nommée ministre de l'environnement en Colombie en août 2010[réf. nécessaire], avant d'être conseillère du vice-président de la République de Colombie sur les océans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sandra Bessudo (née le 30 mai 1969) est une biologiste et personnalité politique franco-colombienne. Spécialiste de l'environnement, elle a été nommée ministre de l'environnement en Colombie en août 2010[réf. nécessaire], avant d'être conseillère du vice-président de la République de Colombie sur les océans.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandra Bessudo, née en Colombie d'une mère belge et d'un père français, a grandi dans son pays natal.
 Biologiste marin et écologiste, mais également ministre désignée de l'environnement durable, Sandra Bessudo a travaillé à protéger l'île de Malpelo depuis 1989, et a fait de l'île une zone de protection nationale en 1995. Elle est devenue directrice des Parcs nationaux de la région.
@@ -544,10 +558,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre national du Mérite le 2 mai 2017[1]
- Officier de l'ordre de Grimaldi (2021)[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre national du Mérite le 2 mai 2017
+ Officier de l'ordre de Grimaldi (2021)</t>
         </is>
       </c>
     </row>
